--- a/Data/IMUReadingsClip/OffenderFly3aOutside.xlsx
+++ b/Data/IMUReadingsClip/OffenderFly3aOutside.xlsx
@@ -15,7 +15,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -83,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,14 +141,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,37 +167,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -159,19 +211,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data/IMUReadingsClip/OffenderFly3aOutside.xlsx
+++ b/Data/IMUReadingsClip/OffenderFly3aOutside.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="accel" sheetId="2" r:id="rId3"/>
     <sheet name="orientation" sheetId="3" r:id="rId5"/>
+    <sheet name="gyro" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -96,6 +97,69 @@
   </si>
   <si>
     <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
   </si>
   <si>
     <t>utcTimeMillis</t>
@@ -131,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,16 +207,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,37 +237,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -211,19 +281,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
